--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-793770.8737420175</v>
+        <v>-795658.4552584195</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>227.088041283079</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>336.868298823339</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>9.275596830496937</v>
+        <v>89.78463339148489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>55.05282282738247</v>
+        <v>339.7041571996402</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>122.3623168480191</v>
       </c>
       <c r="D7" t="n">
-        <v>134.9474759313288</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>57.44899573820091</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,13 +1142,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>356.7031862137969</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>128.7835007017901</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>47.14167849255917</v>
       </c>
     </row>
     <row r="11">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>116.8645225501835</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1664,7 +1664,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701335</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1816,19 +1816,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>213.2616908188571</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>173.9898110906266</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896929</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -2008,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.56346383970859</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>110.8262275356515</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>93.87916681139873</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>67.30597594385851</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>157.2425576766698</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>80.14352268626337</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498027</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002173</v>
       </c>
       <c r="T28" t="n">
-        <v>118.4898845065121</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>97.42169129241844</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801213</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943742</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897908</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571492</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523573</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>128.5465569951255</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898722</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857175</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692856</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329064</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789552</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1421.217123115521</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="C2" t="n">
-        <v>1191.835263233623</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>554.6254674869419</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>547.6799667377385</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.451536646714</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.6828813766</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X2" t="n">
-        <v>1421.217123115521</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y2" t="n">
-        <v>1421.217123115521</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="3">
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2077.988902792793</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C4" t="n">
-        <v>2077.988902792793</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D4" t="n">
-        <v>2077.988902792793</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="E4" t="n">
-        <v>2077.988902792793</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="F4" t="n">
-        <v>2077.988902792793</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="G4" t="n">
-        <v>2068.619613065019</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>2068.619613065019</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>2305.297090124192</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>2077.988902792793</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>2077.988902792793</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>2077.988902792793</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>2077.988902792793</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X4" t="n">
-        <v>2077.988902792793</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y4" t="n">
-        <v>2077.988902792793</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1056.889695563554</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="C5" t="n">
-        <v>687.9271786231425</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2169.72394915887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1816.955293888756</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1443.489535627676</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1443.489535627676</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,31 +4644,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.1897464970883</v>
+        <v>177.5412816668484</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2535635691814</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406185</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.1897464970883</v>
+        <v>359.1897464970881</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1159.40775858698</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="C8" t="n">
-        <v>1159.40775858698</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D8" t="n">
-        <v>1159.40775858698</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>1159.40775858698</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4802,10 +4802,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2267.209817970484</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1936.146930626913</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1936.146930626913</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1936.146930626913</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1546.007598651101</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4893,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.0273259635867</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C10" t="n">
-        <v>184.0273259635867</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>184.0273259635867</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.0273259635867</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="11">
@@ -5030,34 +5030,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>552.3735683412848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>383.4373854133779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>383.4373854133779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150547</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>954.8146123150547</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.0220331715245</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823778</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5297,31 +5297,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5343,25 +5343,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M15" t="n">
         <v>1228.513823643586</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>584.4452354807079</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1283.500421245926</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V16" t="n">
-        <v>1283.500421245926</v>
+        <v>731.3177283550792</v>
       </c>
       <c r="W16" t="n">
-        <v>994.083251208965</v>
+        <v>441.9005583181186</v>
       </c>
       <c r="X16" t="n">
-        <v>766.0937003109476</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y16" t="n">
-        <v>766.0937003109476</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5522,43 +5522,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
         <v>358.2718071316295</v>
@@ -5589,7 +5589,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5610,10 +5610,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5628,7 +5628,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
         <v>1571.258395043133</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.0596387883056</v>
+        <v>499.7332479750894</v>
       </c>
       <c r="C19" t="n">
-        <v>506.0596387883056</v>
+        <v>499.7332479750894</v>
       </c>
       <c r="D19" t="n">
-        <v>506.0596387883056</v>
+        <v>499.7332479750894</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883056</v>
+        <v>351.8201543926962</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903952</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903952</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5677,16 +5677,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1386.970586178456</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1163.185170967962</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.185170967962</v>
+        <v>1164.055751909233</v>
       </c>
       <c r="V19" t="n">
-        <v>908.5006827620754</v>
+        <v>909.3712637033465</v>
       </c>
       <c r="W19" t="n">
-        <v>908.5006827620754</v>
+        <v>909.3712637033465</v>
       </c>
       <c r="X19" t="n">
-        <v>908.5006827620754</v>
+        <v>681.3817128053291</v>
       </c>
       <c r="Y19" t="n">
-        <v>687.7081036185452</v>
+        <v>681.3817128053291</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,28 +5735,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515098</v>
@@ -5765,7 +5765,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
@@ -5774,28 +5774,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>566.6879222525852</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>397.7517393246783</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
         <v>779.0639759471192</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>1044.311772267568</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W22" t="n">
-        <v>976.3259379808422</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>748.3363870828249</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>748.3363870828249</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5966,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,13 +6005,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123429</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123429</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123429</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123429</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123429</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123429</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1340.085404217832</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1050.95676543139</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>796.2722772255034</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W25" t="n">
-        <v>506.8551071885429</v>
+        <v>731.0291971045606</v>
       </c>
       <c r="X25" t="n">
-        <v>278.8655562905255</v>
+        <v>650.0761438861127</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>429.2835647425826</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>545.9992215018334</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>318.009670603816</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6449,49 +6449,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>543.3437276440241</v>
+        <v>494.8466681110232</v>
       </c>
       <c r="C31" t="n">
-        <v>543.3437276440241</v>
+        <v>396.4409193308025</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440241</v>
+        <v>396.4409193308025</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430017</v>
+        <v>304.2886910297802</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264622</v>
+        <v>304.2886910297802</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276535</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6640,31 +6640,31 @@
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661998</v>
+        <v>1390.574594818803</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737482</v>
+        <v>1191.650971894288</v>
       </c>
       <c r="W31" t="n">
-        <v>1006.491726671699</v>
+        <v>957.9946671386978</v>
       </c>
       <c r="X31" t="n">
-        <v>834.2630410550523</v>
+        <v>785.7659815220513</v>
       </c>
       <c r="Y31" t="n">
-        <v>669.231327192893</v>
+        <v>620.734267659892</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,7 +6689,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,19 +6698,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6719,7 +6719,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,25 +6780,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,13 +6853,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6932,49 +6932,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229663</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506716</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045198</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7196,7 +7196,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7333,13 +7333,13 @@
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108322</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103124</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7594,7 +7594,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045198</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010308</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7655,40 +7655,40 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7713,13 +7713,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7728,25 +7728,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,7 +7837,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928345</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,13 +11066,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>29.56944009638563</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23704,19 +23704,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>72.97566157972024</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>51.71984429841058</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.85758418322266</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>87.09458244795172</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>219.2170223927325</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,10 +24415,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>64.30500338171942</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>145.5661327027738</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24649,10 +24649,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="T28" t="n">
-        <v>103.0576765518771</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>14.62187317765225</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965531</v>
+        <v>93.41221638965521</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571486</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523567</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>102.7731847129085</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194637</v>
@@ -26320,13 +26320,13 @@
         <v>184734.3982194637</v>
       </c>
       <c r="E2" t="n">
+        <v>175963.076881969</v>
+      </c>
+      <c r="F2" t="n">
         <v>175963.0768819691</v>
       </c>
-      <c r="F2" t="n">
-        <v>175963.076881969</v>
-      </c>
       <c r="G2" t="n">
-        <v>175963.076881969</v>
+        <v>175963.0768819691</v>
       </c>
       <c r="H2" t="n">
         <v>175963.076881969</v>
@@ -26341,19 +26341,19 @@
         <v>183069.9618053713</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.3982194641</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194641</v>
       </c>
       <c r="N2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.3982194641</v>
       </c>
       <c r="O2" t="n">
         <v>184734.3982194639</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194639</v>
+        <v>184734.3982194641</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,16 +26372,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284557</v>
+        <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086688</v>
+        <v>10342.90680086684</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.657834418547533e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284574</v>
+        <v>44162.60530284569</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26427,37 +26427,37 @@
         <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007545</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007421</v>
+        <v>7916.731656007497</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.73165600741</v>
+        <v>7916.731656007486</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007401</v>
+        <v>7916.731656007459</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020401</v>
+        <v>26081.35417020405</v>
       </c>
       <c r="L4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="M4" t="n">
+        <v>30335.51889732799</v>
+      </c>
+      <c r="N4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732795</v>
-      </c>
-      <c r="M4" t="n">
-        <v>30335.51889732793</v>
-      </c>
-      <c r="N4" t="n">
-        <v>30335.51889732795</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732794</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26479,37 +26479,37 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="N5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="N5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-636009.607774411</v>
+        <v>-636009.6077744112</v>
       </c>
       <c r="C6" t="n">
+        <v>-46041.72855986661</v>
+      </c>
+      <c r="D6" t="n">
         <v>-46041.72855986658</v>
       </c>
-      <c r="D6" t="n">
-        <v>-46041.72855986663</v>
-      </c>
       <c r="E6" t="n">
-        <v>-449101.0171996511</v>
+        <v>-449198.4763256233</v>
       </c>
       <c r="F6" t="n">
-        <v>76059.01927724491</v>
+        <v>75961.56015127273</v>
       </c>
       <c r="G6" t="n">
-        <v>76059.01927724482</v>
+        <v>75961.56015127277</v>
       </c>
       <c r="H6" t="n">
-        <v>76059.01927724472</v>
+        <v>75961.5601512727</v>
       </c>
       <c r="I6" t="n">
-        <v>76059.01927724501</v>
+        <v>75961.56015127267</v>
       </c>
       <c r="J6" t="n">
-        <v>-100364.199915348</v>
+        <v>-100461.6590413202</v>
       </c>
       <c r="K6" t="n">
-        <v>16197.79380209894</v>
+        <v>16179.30006416438</v>
       </c>
       <c r="L6" t="n">
-        <v>46340.86670124366</v>
+        <v>46340.86670124395</v>
       </c>
       <c r="M6" t="n">
-        <v>-78117.24173172678</v>
+        <v>-78117.24173172645</v>
       </c>
       <c r="N6" t="n">
-        <v>56683.77350211055</v>
+        <v>56683.77350211071</v>
       </c>
       <c r="O6" t="n">
-        <v>56683.77350211049</v>
+        <v>56683.7735021105</v>
       </c>
       <c r="P6" t="n">
-        <v>12521.16819926478</v>
+        <v>12521.1681992651</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964061</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26802,16 +26802,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>55.20325662855713</v>
+      </c>
+      <c r="L2" t="n">
+        <v>12.92863350108355</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>55.20325662855711</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12.9286335010836</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27024,7 +27024,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855711</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27270,7 +27270,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>138.1848504879286</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>76.91587119745594</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27549,16 +27549,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>158.034205428554</v>
+        <v>77.52516886756602</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>299.6302187933005</v>
+        <v>14.97888442104278</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>44.88450425060874</v>
       </c>
       <c r="D7" t="n">
-        <v>13.66799708688359</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>325.2848459252797</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,13 +27862,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>50.17285952791451</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>19.83197231642228</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>171.4429748595356</v>
       </c>
     </row>
     <row r="11">
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221136</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35978,13 +35978,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412259</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
         <v>328.4801344341607</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043182</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
